--- a/2_таблица_с_тестами.xlsx
+++ b/2_таблица_с_тестами.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\for_boltak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFA66E7-72EA-4C04-9311-1E94EF7FB7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750B5181-AADE-4C53-8671-3ED79E628AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,6 +307,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -319,6 +325,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -326,15 +335,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -625,183 +625,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="51" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S118" sqref="S118"/>
+    <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AT6" sqref="AT6:CE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AR1" s="35" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AR1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
-      <c r="BQ1" s="35"/>
-      <c r="BR1" s="35"/>
-      <c r="BS1" s="35"/>
-      <c r="BT1" s="35"/>
-      <c r="BU1" s="35"/>
-      <c r="BV1" s="35"/>
-      <c r="BW1" s="35"/>
-      <c r="BX1" s="35"/>
-      <c r="BY1" s="35"/>
-      <c r="BZ1" s="35"/>
-      <c r="CA1" s="35"/>
-      <c r="CB1" s="35"/>
-      <c r="CC1" s="35"/>
-      <c r="CD1" s="35"/>
-      <c r="CE1" s="35"/>
-      <c r="CF1" s="35"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BJ1" s="28"/>
+      <c r="BK1" s="28"/>
+      <c r="BL1" s="28"/>
+      <c r="BM1" s="28"/>
+      <c r="BN1" s="28"/>
+      <c r="BO1" s="28"/>
+      <c r="BP1" s="28"/>
+      <c r="BQ1" s="28"/>
+      <c r="BR1" s="28"/>
+      <c r="BS1" s="28"/>
+      <c r="BT1" s="28"/>
+      <c r="BU1" s="28"/>
+      <c r="BV1" s="28"/>
+      <c r="BW1" s="28"/>
+      <c r="BX1" s="28"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28"/>
+      <c r="CA1" s="28"/>
+      <c r="CB1" s="28"/>
+      <c r="CC1" s="28"/>
+      <c r="CD1" s="28"/>
+      <c r="CE1" s="28"/>
+      <c r="CF1" s="28"/>
     </row>
     <row r="2" spans="1:84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35"/>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="35"/>
-      <c r="BG2" s="35"/>
-      <c r="BH2" s="35"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="35"/>
-      <c r="BM2" s="35"/>
-      <c r="BN2" s="35"/>
-      <c r="BO2" s="35"/>
-      <c r="BP2" s="35"/>
-      <c r="BQ2" s="35"/>
-      <c r="BR2" s="35"/>
-      <c r="BS2" s="35"/>
-      <c r="BT2" s="35"/>
-      <c r="BU2" s="35"/>
-      <c r="BV2" s="35"/>
-      <c r="BW2" s="35"/>
-      <c r="BX2" s="35"/>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CA2" s="35"/>
-      <c r="CB2" s="35"/>
-      <c r="CC2" s="35"/>
-      <c r="CD2" s="35"/>
-      <c r="CE2" s="35"/>
-      <c r="CF2" s="35"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="28"/>
+      <c r="BF2" s="28"/>
+      <c r="BG2" s="28"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="28"/>
+      <c r="BK2" s="28"/>
+      <c r="BL2" s="28"/>
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="28"/>
+      <c r="BP2" s="28"/>
+      <c r="BQ2" s="28"/>
+      <c r="BR2" s="28"/>
+      <c r="BS2" s="28"/>
+      <c r="BT2" s="28"/>
+      <c r="BU2" s="28"/>
+      <c r="BV2" s="28"/>
+      <c r="BW2" s="28"/>
+      <c r="BX2" s="28"/>
+      <c r="BY2" s="28"/>
+      <c r="BZ2" s="28"/>
+      <c r="CA2" s="28"/>
+      <c r="CB2" s="28"/>
+      <c r="CC2" s="28"/>
+      <c r="CD2" s="28"/>
+      <c r="CE2" s="28"/>
+      <c r="CF2" s="28"/>
     </row>
     <row r="3" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AR3" s="8"/>
@@ -846,100 +846,100 @@
       <c r="CE3" s="9"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.45">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
       <c r="AP4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AR4" s="27"/>
-      <c r="AS4" s="28"/>
-      <c r="AT4" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34"/>
-      <c r="BB4" s="34"/>
-      <c r="BC4" s="34"/>
-      <c r="BD4" s="34"/>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="34"/>
-      <c r="BI4" s="34"/>
-      <c r="BJ4" s="34"/>
-      <c r="BK4" s="34"/>
-      <c r="BL4" s="34"/>
-      <c r="BM4" s="34"/>
-      <c r="BN4" s="34"/>
-      <c r="BO4" s="34"/>
-      <c r="BP4" s="34"/>
-      <c r="BQ4" s="34"/>
-      <c r="BR4" s="34"/>
-      <c r="BS4" s="34"/>
-      <c r="BT4" s="34"/>
-      <c r="BU4" s="34"/>
-      <c r="BV4" s="34"/>
-      <c r="BW4" s="34"/>
-      <c r="BX4" s="34"/>
-      <c r="BY4" s="34"/>
-      <c r="BZ4" s="34"/>
-      <c r="CA4" s="34"/>
-      <c r="CB4" s="34"/>
-      <c r="CC4" s="34"/>
-      <c r="CD4" s="34"/>
-      <c r="CE4" s="34"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="30"/>
+      <c r="AT4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
+      <c r="AX4" s="27"/>
+      <c r="AY4" s="27"/>
+      <c r="AZ4" s="27"/>
+      <c r="BA4" s="27"/>
+      <c r="BB4" s="27"/>
+      <c r="BC4" s="27"/>
+      <c r="BD4" s="27"/>
+      <c r="BE4" s="27"/>
+      <c r="BF4" s="27"/>
+      <c r="BG4" s="27"/>
+      <c r="BH4" s="27"/>
+      <c r="BI4" s="27"/>
+      <c r="BJ4" s="27"/>
+      <c r="BK4" s="27"/>
+      <c r="BL4" s="27"/>
+      <c r="BM4" s="27"/>
+      <c r="BN4" s="27"/>
+      <c r="BO4" s="27"/>
+      <c r="BP4" s="27"/>
+      <c r="BQ4" s="27"/>
+      <c r="BR4" s="27"/>
+      <c r="BS4" s="27"/>
+      <c r="BT4" s="27"/>
+      <c r="BU4" s="27"/>
+      <c r="BV4" s="27"/>
+      <c r="BW4" s="27"/>
+      <c r="BX4" s="27"/>
+      <c r="BY4" s="27"/>
+      <c r="BZ4" s="27"/>
+      <c r="CA4" s="27"/>
+      <c r="CB4" s="27"/>
+      <c r="CC4" s="27"/>
+      <c r="CD4" s="27"/>
+      <c r="CE4" s="27"/>
       <c r="CF4" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.45">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
       <c r="D5">
         <v>38</v>
       </c>
@@ -1055,8 +1055,8 @@
         <v>1</v>
       </c>
       <c r="AP5" s="19"/>
-      <c r="AR5" s="29"/>
-      <c r="AS5" s="30"/>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="32"/>
       <c r="AT5">
         <v>38</v>
       </c>
@@ -1174,7 +1174,7 @@
       <c r="CF5" s="19"/>
     </row>
     <row r="6" spans="1:84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="5">
@@ -1298,7 +1298,7 @@
         <f>IF(_xlfn.XOR(D6,AJ6,AK6,AO6),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AR6" s="36" t="s">
+      <c r="AR6" s="33" t="s">
         <v>2</v>
       </c>
       <c r="AS6" s="5">
@@ -1424,7 +1424,7 @@
       </c>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.45">
-      <c r="B7" s="36"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="5">
         <v>2</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ref="E7:N21" si="0">G6</f>
+        <f t="shared" ref="E7:N17" si="0">G6</f>
         <v>1</v>
       </c>
       <c r="G7" s="3">
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" ref="O7:X21" si="1">P6</f>
+        <f t="shared" ref="O7:X17" si="1">P6</f>
         <v>1</v>
       </c>
       <c r="P7" s="3">
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" ref="Y7:AH21" si="2">Z6</f>
+        <f t="shared" ref="Y7:AH17" si="2">Z6</f>
         <v>1</v>
       </c>
       <c r="Z7" s="3">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="AI7" s="3">
-        <f t="shared" ref="AI7:AO21" si="3">AJ6</f>
+        <f t="shared" ref="AI7:AO17" si="3">AJ6</f>
         <v>1</v>
       </c>
       <c r="AJ7" s="15">
@@ -1584,7 +1584,7 @@
         <f>IF(_xlfn.XOR(D7,AJ7,AK7,AO7),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AR7" s="36"/>
+      <c r="AR7" s="33"/>
       <c r="AS7" s="5">
         <v>2</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="BL7" s="3">
-        <f t="shared" ref="BL7:CA21" si="5">BM6</f>
+        <f t="shared" ref="BL7:CA17" si="5">BM6</f>
         <v>1</v>
       </c>
       <c r="BM7" s="3">
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="CB7" s="3">
-        <f t="shared" ref="BY7:CE21" si="6">CC6</f>
+        <f t="shared" ref="BY7:CE18" si="6">CC6</f>
         <v>1</v>
       </c>
       <c r="CC7" s="3">
@@ -1746,7 +1746,7 @@
       </c>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.45">
-      <c r="B8" s="36"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="5">
         <v>3</v>
       </c>
@@ -1906,7 +1906,7 @@
         <f t="shared" ref="AP8:AP21" si="7">IF(_xlfn.XOR(D8,AJ8,AK8,AO8),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AR8" s="36"/>
+      <c r="AR8" s="33"/>
       <c r="AS8" s="5">
         <v>3</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AU8" s="4">
-        <f t="shared" ref="AU8:BJ21" si="8">AV7</f>
+        <f t="shared" ref="AU8:BD18" si="8">AV7</f>
         <v>1</v>
       </c>
       <c r="AV8" s="4">
@@ -2068,7 +2068,7 @@
       </c>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.45">
-      <c r="B9" s="36"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="5">
         <v>4</v>
       </c>
@@ -2228,7 +2228,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AR9" s="36"/>
+      <c r="AR9" s="33"/>
       <c r="AS9" s="5">
         <v>4</v>
       </c>
@@ -2390,12 +2390,12 @@
       </c>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.45">
-      <c r="B10" s="36"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="5">
         <v>5</v>
       </c>
       <c r="D10" s="14">
-        <f t="shared" ref="D10:D21" si="10">E9</f>
+        <f t="shared" ref="D10:D17" si="10">E9</f>
         <v>1</v>
       </c>
       <c r="E10" s="4">
@@ -2550,12 +2550,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR10" s="36"/>
+      <c r="AR10" s="33"/>
       <c r="AS10" s="5">
         <v>5</v>
       </c>
       <c r="AT10" s="14">
-        <f t="shared" ref="AT10:AT21" si="11">AU9</f>
+        <f t="shared" ref="AT10:AT17" si="11">AU9</f>
         <v>1</v>
       </c>
       <c r="AU10" s="4">
@@ -2712,7 +2712,7 @@
       </c>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.45">
-      <c r="B11" s="36"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="5">
         <v>6</v>
       </c>
@@ -2872,7 +2872,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR11" s="36"/>
+      <c r="AR11" s="33"/>
       <c r="AS11" s="5">
         <v>6</v>
       </c>
@@ -3034,7 +3034,7 @@
       </c>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.45">
-      <c r="B12" s="36"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="5">
         <v>7</v>
       </c>
@@ -3194,7 +3194,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR12" s="36"/>
+      <c r="AR12" s="33"/>
       <c r="AS12" s="5">
         <v>7</v>
       </c>
@@ -3356,7 +3356,7 @@
       </c>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.45">
-      <c r="B13" s="36"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="5">
         <v>8</v>
       </c>
@@ -3516,7 +3516,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR13" s="36"/>
+      <c r="AR13" s="33"/>
       <c r="AS13" s="5">
         <v>8</v>
       </c>
@@ -3678,7 +3678,7 @@
       </c>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.45">
-      <c r="B14" s="36"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="5">
         <v>9</v>
       </c>
@@ -3838,7 +3838,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR14" s="36"/>
+      <c r="AR14" s="33"/>
       <c r="AS14" s="5">
         <v>9</v>
       </c>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
-      <c r="B15" s="36"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="5">
         <v>10</v>
       </c>
@@ -4161,7 +4161,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR15" s="36"/>
+      <c r="AR15" s="33"/>
       <c r="AS15" s="5">
         <v>10</v>
       </c>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
-      <c r="B16" s="36"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="5">
         <v>11</v>
       </c>
@@ -4484,7 +4484,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AR16" s="36"/>
+      <c r="AR16" s="33"/>
       <c r="AS16" s="5">
         <v>11</v>
       </c>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
-      <c r="B17" s="36"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="5">
         <v>12</v>
       </c>
@@ -4807,7 +4807,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR17" s="36"/>
+      <c r="AR17" s="33"/>
       <c r="AS17" s="5">
         <v>12</v>
       </c>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A18" s="7"/>
-      <c r="B18" s="36"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="5">
         <v>13</v>
       </c>
@@ -5130,7 +5130,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AR18" s="36"/>
+      <c r="AR18" s="33"/>
       <c r="AS18" s="5">
         <v>13</v>
       </c>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A19" s="7"/>
-      <c r="B19" s="36"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="5">
         <v>14</v>
       </c>
@@ -5453,7 +5453,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR19" s="36"/>
+      <c r="AR19" s="33"/>
       <c r="AS19" s="5">
         <v>14</v>
       </c>
@@ -5616,7 +5616,7 @@
     </row>
     <row r="20" spans="1:84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
-      <c r="B20" s="36"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="5">
         <v>15</v>
       </c>
@@ -5776,7 +5776,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AR20" s="36"/>
+      <c r="AR20" s="33"/>
       <c r="AS20" s="5">
         <v>15</v>
       </c>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="21" spans="1:84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
-      <c r="B21" s="36"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="22">
         <v>16</v>
       </c>
@@ -6099,7 +6099,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AR21" s="36"/>
+      <c r="AR21" s="33"/>
       <c r="AS21" s="22">
         <v>16</v>
       </c>
@@ -6268,177 +6268,177 @@
     </row>
     <row r="24" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AR24" s="35" t="s">
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28"/>
+      <c r="AR24" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AS24" s="35"/>
-      <c r="AT24" s="35"/>
-      <c r="AU24" s="35"/>
-      <c r="AV24" s="35"/>
-      <c r="AW24" s="35"/>
-      <c r="AX24" s="35"/>
-      <c r="AY24" s="35"/>
-      <c r="AZ24" s="35"/>
-      <c r="BA24" s="35"/>
-      <c r="BB24" s="35"/>
-      <c r="BC24" s="35"/>
-      <c r="BD24" s="35"/>
-      <c r="BE24" s="35"/>
-      <c r="BF24" s="35"/>
-      <c r="BG24" s="35"/>
-      <c r="BH24" s="35"/>
-      <c r="BI24" s="35"/>
-      <c r="BJ24" s="35"/>
-      <c r="BK24" s="35"/>
-      <c r="BL24" s="35"/>
-      <c r="BM24" s="35"/>
-      <c r="BN24" s="35"/>
-      <c r="BO24" s="35"/>
-      <c r="BP24" s="35"/>
-      <c r="BQ24" s="35"/>
-      <c r="BR24" s="35"/>
-      <c r="BS24" s="35"/>
-      <c r="BT24" s="35"/>
-      <c r="BU24" s="35"/>
-      <c r="BV24" s="35"/>
-      <c r="BW24" s="35"/>
-      <c r="BX24" s="35"/>
-      <c r="BY24" s="35"/>
-      <c r="BZ24" s="35"/>
-      <c r="CA24" s="35"/>
-      <c r="CB24" s="35"/>
-      <c r="CC24" s="35"/>
-      <c r="CD24" s="35"/>
-      <c r="CE24" s="35"/>
-      <c r="CF24" s="35"/>
+      <c r="AS24" s="28"/>
+      <c r="AT24" s="28"/>
+      <c r="AU24" s="28"/>
+      <c r="AV24" s="28"/>
+      <c r="AW24" s="28"/>
+      <c r="AX24" s="28"/>
+      <c r="AY24" s="28"/>
+      <c r="AZ24" s="28"/>
+      <c r="BA24" s="28"/>
+      <c r="BB24" s="28"/>
+      <c r="BC24" s="28"/>
+      <c r="BD24" s="28"/>
+      <c r="BE24" s="28"/>
+      <c r="BF24" s="28"/>
+      <c r="BG24" s="28"/>
+      <c r="BH24" s="28"/>
+      <c r="BI24" s="28"/>
+      <c r="BJ24" s="28"/>
+      <c r="BK24" s="28"/>
+      <c r="BL24" s="28"/>
+      <c r="BM24" s="28"/>
+      <c r="BN24" s="28"/>
+      <c r="BO24" s="28"/>
+      <c r="BP24" s="28"/>
+      <c r="BQ24" s="28"/>
+      <c r="BR24" s="28"/>
+      <c r="BS24" s="28"/>
+      <c r="BT24" s="28"/>
+      <c r="BU24" s="28"/>
+      <c r="BV24" s="28"/>
+      <c r="BW24" s="28"/>
+      <c r="BX24" s="28"/>
+      <c r="BY24" s="28"/>
+      <c r="BZ24" s="28"/>
+      <c r="CA24" s="28"/>
+      <c r="CB24" s="28"/>
+      <c r="CC24" s="28"/>
+      <c r="CD24" s="28"/>
+      <c r="CE24" s="28"/>
+      <c r="CF24" s="28"/>
     </row>
     <row r="25" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="35"/>
-      <c r="AK25" s="35"/>
-      <c r="AL25" s="35"/>
-      <c r="AM25" s="35"/>
-      <c r="AN25" s="35"/>
-      <c r="AO25" s="35"/>
-      <c r="AP25" s="35"/>
-      <c r="AR25" s="35"/>
-      <c r="AS25" s="35"/>
-      <c r="AT25" s="35"/>
-      <c r="AU25" s="35"/>
-      <c r="AV25" s="35"/>
-      <c r="AW25" s="35"/>
-      <c r="AX25" s="35"/>
-      <c r="AY25" s="35"/>
-      <c r="AZ25" s="35"/>
-      <c r="BA25" s="35"/>
-      <c r="BB25" s="35"/>
-      <c r="BC25" s="35"/>
-      <c r="BD25" s="35"/>
-      <c r="BE25" s="35"/>
-      <c r="BF25" s="35"/>
-      <c r="BG25" s="35"/>
-      <c r="BH25" s="35"/>
-      <c r="BI25" s="35"/>
-      <c r="BJ25" s="35"/>
-      <c r="BK25" s="35"/>
-      <c r="BL25" s="35"/>
-      <c r="BM25" s="35"/>
-      <c r="BN25" s="35"/>
-      <c r="BO25" s="35"/>
-      <c r="BP25" s="35"/>
-      <c r="BQ25" s="35"/>
-      <c r="BR25" s="35"/>
-      <c r="BS25" s="35"/>
-      <c r="BT25" s="35"/>
-      <c r="BU25" s="35"/>
-      <c r="BV25" s="35"/>
-      <c r="BW25" s="35"/>
-      <c r="BX25" s="35"/>
-      <c r="BY25" s="35"/>
-      <c r="BZ25" s="35"/>
-      <c r="CA25" s="35"/>
-      <c r="CB25" s="35"/>
-      <c r="CC25" s="35"/>
-      <c r="CD25" s="35"/>
-      <c r="CE25" s="35"/>
-      <c r="CF25" s="35"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="28"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="28"/>
+      <c r="AR25" s="28"/>
+      <c r="AS25" s="28"/>
+      <c r="AT25" s="28"/>
+      <c r="AU25" s="28"/>
+      <c r="AV25" s="28"/>
+      <c r="AW25" s="28"/>
+      <c r="AX25" s="28"/>
+      <c r="AY25" s="28"/>
+      <c r="AZ25" s="28"/>
+      <c r="BA25" s="28"/>
+      <c r="BB25" s="28"/>
+      <c r="BC25" s="28"/>
+      <c r="BD25" s="28"/>
+      <c r="BE25" s="28"/>
+      <c r="BF25" s="28"/>
+      <c r="BG25" s="28"/>
+      <c r="BH25" s="28"/>
+      <c r="BI25" s="28"/>
+      <c r="BJ25" s="28"/>
+      <c r="BK25" s="28"/>
+      <c r="BL25" s="28"/>
+      <c r="BM25" s="28"/>
+      <c r="BN25" s="28"/>
+      <c r="BO25" s="28"/>
+      <c r="BP25" s="28"/>
+      <c r="BQ25" s="28"/>
+      <c r="BR25" s="28"/>
+      <c r="BS25" s="28"/>
+      <c r="BT25" s="28"/>
+      <c r="BU25" s="28"/>
+      <c r="BV25" s="28"/>
+      <c r="BW25" s="28"/>
+      <c r="BX25" s="28"/>
+      <c r="BY25" s="28"/>
+      <c r="BZ25" s="28"/>
+      <c r="CA25" s="28"/>
+      <c r="CB25" s="28"/>
+      <c r="CC25" s="28"/>
+      <c r="CD25" s="28"/>
+      <c r="CE25" s="28"/>
+      <c r="CF25" s="28"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
@@ -6485,101 +6485,101 @@
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="34"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="34"/>
-      <c r="AK27" s="34"/>
-      <c r="AL27" s="34"/>
-      <c r="AM27" s="34"/>
-      <c r="AN27" s="34"/>
-      <c r="AO27" s="34"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
       <c r="AP27" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AR27" s="27"/>
-      <c r="AS27" s="28"/>
-      <c r="AT27" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="34"/>
-      <c r="AV27" s="34"/>
-      <c r="AW27" s="34"/>
-      <c r="AX27" s="34"/>
-      <c r="AY27" s="34"/>
-      <c r="AZ27" s="34"/>
-      <c r="BA27" s="34"/>
-      <c r="BB27" s="34"/>
-      <c r="BC27" s="34"/>
-      <c r="BD27" s="34"/>
-      <c r="BE27" s="34"/>
-      <c r="BF27" s="34"/>
-      <c r="BG27" s="34"/>
-      <c r="BH27" s="34"/>
-      <c r="BI27" s="34"/>
-      <c r="BJ27" s="34"/>
-      <c r="BK27" s="34"/>
-      <c r="BL27" s="34"/>
-      <c r="BM27" s="34"/>
-      <c r="BN27" s="34"/>
-      <c r="BO27" s="34"/>
-      <c r="BP27" s="34"/>
-      <c r="BQ27" s="34"/>
-      <c r="BR27" s="34"/>
-      <c r="BS27" s="34"/>
-      <c r="BT27" s="34"/>
-      <c r="BU27" s="34"/>
-      <c r="BV27" s="34"/>
-      <c r="BW27" s="34"/>
-      <c r="BX27" s="34"/>
-      <c r="BY27" s="34"/>
-      <c r="BZ27" s="34"/>
-      <c r="CA27" s="34"/>
-      <c r="CB27" s="34"/>
-      <c r="CC27" s="34"/>
-      <c r="CD27" s="34"/>
-      <c r="CE27" s="34"/>
+      <c r="AR27" s="29"/>
+      <c r="AS27" s="30"/>
+      <c r="AT27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="27"/>
+      <c r="AV27" s="27"/>
+      <c r="AW27" s="27"/>
+      <c r="AX27" s="27"/>
+      <c r="AY27" s="27"/>
+      <c r="AZ27" s="27"/>
+      <c r="BA27" s="27"/>
+      <c r="BB27" s="27"/>
+      <c r="BC27" s="27"/>
+      <c r="BD27" s="27"/>
+      <c r="BE27" s="27"/>
+      <c r="BF27" s="27"/>
+      <c r="BG27" s="27"/>
+      <c r="BH27" s="27"/>
+      <c r="BI27" s="27"/>
+      <c r="BJ27" s="27"/>
+      <c r="BK27" s="27"/>
+      <c r="BL27" s="27"/>
+      <c r="BM27" s="27"/>
+      <c r="BN27" s="27"/>
+      <c r="BO27" s="27"/>
+      <c r="BP27" s="27"/>
+      <c r="BQ27" s="27"/>
+      <c r="BR27" s="27"/>
+      <c r="BS27" s="27"/>
+      <c r="BT27" s="27"/>
+      <c r="BU27" s="27"/>
+      <c r="BV27" s="27"/>
+      <c r="BW27" s="27"/>
+      <c r="BX27" s="27"/>
+      <c r="BY27" s="27"/>
+      <c r="BZ27" s="27"/>
+      <c r="CA27" s="27"/>
+      <c r="CB27" s="27"/>
+      <c r="CC27" s="27"/>
+      <c r="CD27" s="27"/>
+      <c r="CE27" s="27"/>
       <c r="CF27" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
       <c r="D28">
         <v>38</v>
       </c>
@@ -6695,8 +6695,8 @@
         <v>1</v>
       </c>
       <c r="AP28" s="19"/>
-      <c r="AR28" s="29"/>
-      <c r="AS28" s="30"/>
+      <c r="AR28" s="31"/>
+      <c r="AS28" s="32"/>
       <c r="AT28">
         <v>38</v>
       </c>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="29" spans="1:84" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="23">
@@ -6939,7 +6939,7 @@
         <f>IF(_xlfn.XOR(D29,AJ29,AK29,AO29),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AR29" s="31" t="s">
+      <c r="AR29" s="34" t="s">
         <v>2</v>
       </c>
       <c r="AS29" s="23">
@@ -7066,7 +7066,7 @@
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
-      <c r="B30" s="32"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="24">
         <v>2</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" ref="F30:U45" si="88">G29</f>
+        <f t="shared" ref="F30:U40" si="88">G29</f>
         <v>1</v>
       </c>
       <c r="G30" s="3">
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="V30" s="3">
-        <f t="shared" ref="V30:AK45" si="89">W29</f>
+        <f t="shared" ref="V30:AK40" si="89">W29</f>
         <v>1</v>
       </c>
       <c r="W30" s="3">
@@ -7207,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="AL30" s="3">
-        <f t="shared" ref="AI30:AO45" si="90">AM29</f>
+        <f t="shared" ref="AI30:AO41" si="90">AM29</f>
         <v>1</v>
       </c>
       <c r="AM30" s="3">
@@ -7226,7 +7226,7 @@
         <f>IF(_xlfn.XOR(D30,AJ30,AK30,AO30),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AR30" s="32"/>
+      <c r="AR30" s="35"/>
       <c r="AS30" s="24">
         <v>2</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="AV30" s="3">
-        <f t="shared" ref="AV30:BK45" si="91">AW29</f>
+        <f t="shared" ref="AV30:BK40" si="91">AW29</f>
         <v>1</v>
       </c>
       <c r="AW30" s="3">
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="BL30" s="3">
-        <f t="shared" ref="BL30:CA45" si="92">BM29</f>
+        <f t="shared" ref="BL30:CA40" si="92">BM29</f>
         <v>1</v>
       </c>
       <c r="BM30" s="3">
@@ -7367,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="CB30" s="3">
-        <f t="shared" ref="BY30:CE45" si="93">CC29</f>
+        <f t="shared" ref="BY30:CE41" si="93">CC29</f>
         <v>1</v>
       </c>
       <c r="CC30" s="3">
@@ -7389,7 +7389,7 @@
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
-      <c r="B31" s="32"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="24">
         <v>3</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" ref="E31:T46" si="94">F30</f>
+        <f t="shared" ref="E31:N41" si="94">F30</f>
         <v>1</v>
       </c>
       <c r="F31" s="4">
@@ -7549,7 +7549,7 @@
         <f t="shared" ref="AP31:AP45" si="95">IF(_xlfn.XOR(D31,AJ31,AK31,AO31),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AR31" s="32"/>
+      <c r="AR31" s="35"/>
       <c r="AS31" s="24">
         <v>3</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="AU31" s="4">
-        <f t="shared" ref="AU31:BJ46" si="96">AV30</f>
+        <f t="shared" ref="AU31:BD41" si="96">AV30</f>
         <v>1</v>
       </c>
       <c r="AV31" s="4">
@@ -7712,7 +7712,7 @@
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
-      <c r="B32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="24">
         <v>4</v>
       </c>
@@ -7872,7 +7872,7 @@
         <f t="shared" si="95"/>
         <v>1</v>
       </c>
-      <c r="AR32" s="32"/>
+      <c r="AR32" s="35"/>
       <c r="AS32" s="24">
         <v>4</v>
       </c>
@@ -8035,12 +8035,12 @@
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
-      <c r="B33" s="32"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="24">
         <v>5</v>
       </c>
       <c r="D33" s="14">
-        <f t="shared" ref="D33:S48" si="98">E32</f>
+        <f t="shared" ref="D33:D43" si="98">E32</f>
         <v>1</v>
       </c>
       <c r="E33" s="4">
@@ -8195,12 +8195,12 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AR33" s="32"/>
+      <c r="AR33" s="35"/>
       <c r="AS33" s="24">
         <v>5</v>
       </c>
       <c r="AT33" s="14">
-        <f t="shared" ref="AT33:BI48" si="99">AU32</f>
+        <f t="shared" ref="AT33:AT43" si="99">AU32</f>
         <v>1</v>
       </c>
       <c r="AU33" s="4">
@@ -8358,7 +8358,7 @@
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
-      <c r="B34" s="32"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="24">
         <v>6</v>
       </c>
@@ -8518,7 +8518,7 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AR34" s="32"/>
+      <c r="AR34" s="35"/>
       <c r="AS34" s="24">
         <v>6</v>
       </c>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
-      <c r="B35" s="32"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="24">
         <v>7</v>
       </c>
@@ -8841,7 +8841,7 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AR35" s="32"/>
+      <c r="AR35" s="35"/>
       <c r="AS35" s="24">
         <v>7</v>
       </c>
@@ -9004,7 +9004,7 @@
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
-      <c r="B36" s="32"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="24">
         <v>8</v>
       </c>
@@ -9164,7 +9164,7 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AR36" s="32"/>
+      <c r="AR36" s="35"/>
       <c r="AS36" s="24">
         <v>8</v>
       </c>
@@ -9327,7 +9327,7 @@
     </row>
     <row r="37" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="7"/>
-      <c r="B37" s="32"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="24">
         <v>9</v>
       </c>
@@ -9487,7 +9487,7 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AR37" s="32"/>
+      <c r="AR37" s="35"/>
       <c r="AS37" s="24">
         <v>9</v>
       </c>
@@ -9650,7 +9650,7 @@
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
-      <c r="B38" s="32"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="24">
         <v>10</v>
       </c>
@@ -9810,7 +9810,7 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AR38" s="32"/>
+      <c r="AR38" s="35"/>
       <c r="AS38" s="24">
         <v>10</v>
       </c>
@@ -9973,7 +9973,7 @@
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
-      <c r="B39" s="32"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="24">
         <v>11</v>
       </c>
@@ -10133,7 +10133,7 @@
         <f t="shared" si="95"/>
         <v>1</v>
       </c>
-      <c r="AR39" s="32"/>
+      <c r="AR39" s="35"/>
       <c r="AS39" s="24">
         <v>11</v>
       </c>
@@ -10296,7 +10296,7 @@
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A40" s="7"/>
-      <c r="B40" s="32"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="24">
         <v>12</v>
       </c>
@@ -10456,7 +10456,7 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AR40" s="32"/>
+      <c r="AR40" s="35"/>
       <c r="AS40" s="24">
         <v>12</v>
       </c>
@@ -10619,7 +10619,7 @@
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A41" s="7"/>
-      <c r="B41" s="32"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="24">
         <v>13</v>
       </c>
@@ -10779,7 +10779,7 @@
         <f t="shared" si="95"/>
         <v>1</v>
       </c>
-      <c r="AR41" s="32"/>
+      <c r="AR41" s="35"/>
       <c r="AS41" s="24">
         <v>13</v>
       </c>
@@ -10942,7 +10942,7 @@
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A42" s="7"/>
-      <c r="B42" s="32"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="24">
         <v>14</v>
       </c>
@@ -11102,7 +11102,7 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AR42" s="32"/>
+      <c r="AR42" s="35"/>
       <c r="AS42" s="24">
         <v>14</v>
       </c>
@@ -11265,7 +11265,7 @@
     </row>
     <row r="43" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="7"/>
-      <c r="B43" s="32"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="24">
         <v>15</v>
       </c>
@@ -11425,7 +11425,7 @@
         <f t="shared" si="95"/>
         <v>1</v>
       </c>
-      <c r="AR43" s="32"/>
+      <c r="AR43" s="35"/>
       <c r="AS43" s="24">
         <v>15</v>
       </c>
@@ -11588,7 +11588,7 @@
     </row>
     <row r="44" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A44" s="7"/>
-      <c r="B44" s="32"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="24">
         <v>16</v>
       </c>
@@ -11748,7 +11748,7 @@
         <f t="shared" si="95"/>
         <v>1</v>
       </c>
-      <c r="AR44" s="32"/>
+      <c r="AR44" s="35"/>
       <c r="AS44" s="24">
         <v>16</v>
       </c>
@@ -11911,7 +11911,7 @@
     </row>
     <row r="45" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A45" s="7"/>
-      <c r="B45" s="32"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="24">
         <v>17</v>
       </c>
@@ -12071,7 +12071,7 @@
         <f t="shared" si="95"/>
         <v>1</v>
       </c>
-      <c r="AR45" s="32"/>
+      <c r="AR45" s="35"/>
       <c r="AS45" s="24">
         <v>17</v>
       </c>
@@ -12234,7 +12234,7 @@
     </row>
     <row r="46" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A46" s="7"/>
-      <c r="B46" s="32"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="24">
         <v>18</v>
       </c>
@@ -12394,7 +12394,7 @@
         <f t="shared" ref="AP46:AP109" si="176">IF(_xlfn.XOR(D46,AJ46,AK46,AO46),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AR46" s="32"/>
+      <c r="AR46" s="35"/>
       <c r="AS46" s="24">
         <v>18</v>
       </c>
@@ -12557,7 +12557,7 @@
     </row>
     <row r="47" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A47" s="7"/>
-      <c r="B47" s="32"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="24">
         <v>19</v>
       </c>
@@ -12717,7 +12717,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR47" s="32"/>
+      <c r="AR47" s="35"/>
       <c r="AS47" s="24">
         <v>19</v>
       </c>
@@ -12880,7 +12880,7 @@
     </row>
     <row r="48" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A48" s="7"/>
-      <c r="B48" s="32"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="24">
         <v>20</v>
       </c>
@@ -13040,7 +13040,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR48" s="32"/>
+      <c r="AR48" s="35"/>
       <c r="AS48" s="24">
         <v>20</v>
       </c>
@@ -13203,7 +13203,7 @@
     </row>
     <row r="49" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
-      <c r="B49" s="32"/>
+      <c r="B49" s="35"/>
       <c r="C49" s="24">
         <v>21</v>
       </c>
@@ -13363,7 +13363,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR49" s="32"/>
+      <c r="AR49" s="35"/>
       <c r="AS49" s="24">
         <v>21</v>
       </c>
@@ -13526,7 +13526,7 @@
     </row>
     <row r="50" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A50" s="7"/>
-      <c r="B50" s="32"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="24">
         <v>22</v>
       </c>
@@ -13686,7 +13686,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR50" s="32"/>
+      <c r="AR50" s="35"/>
       <c r="AS50" s="24">
         <v>22</v>
       </c>
@@ -13849,7 +13849,7 @@
     </row>
     <row r="51" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A51" s="7"/>
-      <c r="B51" s="32"/>
+      <c r="B51" s="35"/>
       <c r="C51" s="24">
         <v>23</v>
       </c>
@@ -14009,7 +14009,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR51" s="32"/>
+      <c r="AR51" s="35"/>
       <c r="AS51" s="24">
         <v>23</v>
       </c>
@@ -14172,7 +14172,7 @@
     </row>
     <row r="52" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A52" s="7"/>
-      <c r="B52" s="32"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="24">
         <v>24</v>
       </c>
@@ -14332,7 +14332,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR52" s="32"/>
+      <c r="AR52" s="35"/>
       <c r="AS52" s="24">
         <v>24</v>
       </c>
@@ -14495,7 +14495,7 @@
     </row>
     <row r="53" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A53" s="7"/>
-      <c r="B53" s="32"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="24">
         <v>25</v>
       </c>
@@ -14655,7 +14655,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR53" s="32"/>
+      <c r="AR53" s="35"/>
       <c r="AS53" s="24">
         <v>25</v>
       </c>
@@ -14818,7 +14818,7 @@
     </row>
     <row r="54" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A54" s="7"/>
-      <c r="B54" s="32"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="24">
         <v>26</v>
       </c>
@@ -14978,7 +14978,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR54" s="32"/>
+      <c r="AR54" s="35"/>
       <c r="AS54" s="24">
         <v>26</v>
       </c>
@@ -15141,7 +15141,7 @@
     </row>
     <row r="55" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A55" s="7"/>
-      <c r="B55" s="32"/>
+      <c r="B55" s="35"/>
       <c r="C55" s="24">
         <v>27</v>
       </c>
@@ -15301,7 +15301,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR55" s="32"/>
+      <c r="AR55" s="35"/>
       <c r="AS55" s="24">
         <v>27</v>
       </c>
@@ -15464,7 +15464,7 @@
     </row>
     <row r="56" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A56" s="7"/>
-      <c r="B56" s="32"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="24">
         <v>28</v>
       </c>
@@ -15624,7 +15624,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR56" s="32"/>
+      <c r="AR56" s="35"/>
       <c r="AS56" s="24">
         <v>28</v>
       </c>
@@ -15787,7 +15787,7 @@
     </row>
     <row r="57" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A57" s="7"/>
-      <c r="B57" s="32"/>
+      <c r="B57" s="35"/>
       <c r="C57" s="24">
         <v>29</v>
       </c>
@@ -15947,7 +15947,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR57" s="32"/>
+      <c r="AR57" s="35"/>
       <c r="AS57" s="24">
         <v>29</v>
       </c>
@@ -16110,7 +16110,7 @@
     </row>
     <row r="58" spans="1:84" x14ac:dyDescent="0.45">
       <c r="A58" s="7"/>
-      <c r="B58" s="32"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="24">
         <v>30</v>
       </c>
@@ -16270,7 +16270,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR58" s="32"/>
+      <c r="AR58" s="35"/>
       <c r="AS58" s="24">
         <v>30</v>
       </c>
@@ -16432,7 +16432,7 @@
       </c>
     </row>
     <row r="59" spans="1:84" x14ac:dyDescent="0.45">
-      <c r="B59" s="32"/>
+      <c r="B59" s="35"/>
       <c r="C59" s="24">
         <v>31</v>
       </c>
@@ -16592,7 +16592,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR59" s="32"/>
+      <c r="AR59" s="35"/>
       <c r="AS59" s="24">
         <v>31</v>
       </c>
@@ -16754,7 +16754,7 @@
       </c>
     </row>
     <row r="60" spans="1:84" x14ac:dyDescent="0.45">
-      <c r="B60" s="32"/>
+      <c r="B60" s="35"/>
       <c r="C60" s="24">
         <v>32</v>
       </c>
@@ -16914,7 +16914,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR60" s="32"/>
+      <c r="AR60" s="35"/>
       <c r="AS60" s="24">
         <v>32</v>
       </c>
@@ -17076,7 +17076,7 @@
       </c>
     </row>
     <row r="61" spans="1:84" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="32"/>
+      <c r="B61" s="35"/>
       <c r="C61" s="24">
         <v>33</v>
       </c>
@@ -17236,7 +17236,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR61" s="32"/>
+      <c r="AR61" s="35"/>
       <c r="AS61" s="24">
         <v>33</v>
       </c>
@@ -17398,7 +17398,7 @@
       </c>
     </row>
     <row r="62" spans="1:84" x14ac:dyDescent="0.45">
-      <c r="B62" s="32"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="24">
         <v>34</v>
       </c>
@@ -17558,7 +17558,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR62" s="32"/>
+      <c r="AR62" s="35"/>
       <c r="AS62" s="24">
         <v>34</v>
       </c>
@@ -17720,7 +17720,7 @@
       </c>
     </row>
     <row r="63" spans="1:84" x14ac:dyDescent="0.45">
-      <c r="B63" s="32"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="24">
         <v>35</v>
       </c>
@@ -17880,7 +17880,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR63" s="32"/>
+      <c r="AR63" s="35"/>
       <c r="AS63" s="24">
         <v>35</v>
       </c>
@@ -18042,7 +18042,7 @@
       </c>
     </row>
     <row r="64" spans="1:84" x14ac:dyDescent="0.45">
-      <c r="B64" s="32"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="24">
         <v>36</v>
       </c>
@@ -18202,7 +18202,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR64" s="32"/>
+      <c r="AR64" s="35"/>
       <c r="AS64" s="24">
         <v>36</v>
       </c>
@@ -18364,7 +18364,7 @@
       </c>
     </row>
     <row r="65" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B65" s="32"/>
+      <c r="B65" s="35"/>
       <c r="C65" s="24">
         <v>37</v>
       </c>
@@ -18524,7 +18524,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR65" s="32"/>
+      <c r="AR65" s="35"/>
       <c r="AS65" s="24">
         <v>37</v>
       </c>
@@ -18686,7 +18686,7 @@
       </c>
     </row>
     <row r="66" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B66" s="32"/>
+      <c r="B66" s="35"/>
       <c r="C66" s="24">
         <v>38</v>
       </c>
@@ -18846,7 +18846,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR66" s="32"/>
+      <c r="AR66" s="35"/>
       <c r="AS66" s="24">
         <v>38</v>
       </c>
@@ -19008,7 +19008,7 @@
       </c>
     </row>
     <row r="67" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B67" s="32"/>
+      <c r="B67" s="35"/>
       <c r="C67" s="24">
         <v>39</v>
       </c>
@@ -19168,7 +19168,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR67" s="32"/>
+      <c r="AR67" s="35"/>
       <c r="AS67" s="24">
         <v>39</v>
       </c>
@@ -19330,7 +19330,7 @@
       </c>
     </row>
     <row r="68" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B68" s="32"/>
+      <c r="B68" s="35"/>
       <c r="C68" s="24">
         <v>40</v>
       </c>
@@ -19490,7 +19490,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR68" s="32"/>
+      <c r="AR68" s="35"/>
       <c r="AS68" s="24">
         <v>40</v>
       </c>
@@ -19652,7 +19652,7 @@
       </c>
     </row>
     <row r="69" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B69" s="32"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="24">
         <v>41</v>
       </c>
@@ -19812,7 +19812,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR69" s="32"/>
+      <c r="AR69" s="35"/>
       <c r="AS69" s="24">
         <v>41</v>
       </c>
@@ -19974,7 +19974,7 @@
       </c>
     </row>
     <row r="70" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B70" s="32"/>
+      <c r="B70" s="35"/>
       <c r="C70" s="24">
         <v>42</v>
       </c>
@@ -20134,7 +20134,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR70" s="32"/>
+      <c r="AR70" s="35"/>
       <c r="AS70" s="24">
         <v>42</v>
       </c>
@@ -20296,7 +20296,7 @@
       </c>
     </row>
     <row r="71" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B71" s="32"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="24">
         <v>43</v>
       </c>
@@ -20456,7 +20456,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR71" s="32"/>
+      <c r="AR71" s="35"/>
       <c r="AS71" s="24">
         <v>43</v>
       </c>
@@ -20618,7 +20618,7 @@
       </c>
     </row>
     <row r="72" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B72" s="32"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="24">
         <v>44</v>
       </c>
@@ -20778,7 +20778,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR72" s="32"/>
+      <c r="AR72" s="35"/>
       <c r="AS72" s="24">
         <v>44</v>
       </c>
@@ -20940,7 +20940,7 @@
       </c>
     </row>
     <row r="73" spans="2:84" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="32"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="24">
         <v>45</v>
       </c>
@@ -21100,7 +21100,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR73" s="32"/>
+      <c r="AR73" s="35"/>
       <c r="AS73" s="24">
         <v>45</v>
       </c>
@@ -21262,7 +21262,7 @@
       </c>
     </row>
     <row r="74" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B74" s="32"/>
+      <c r="B74" s="35"/>
       <c r="C74" s="24">
         <v>46</v>
       </c>
@@ -21422,7 +21422,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR74" s="32"/>
+      <c r="AR74" s="35"/>
       <c r="AS74" s="24">
         <v>46</v>
       </c>
@@ -21584,7 +21584,7 @@
       </c>
     </row>
     <row r="75" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B75" s="32"/>
+      <c r="B75" s="35"/>
       <c r="C75" s="24">
         <v>47</v>
       </c>
@@ -21744,7 +21744,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR75" s="32"/>
+      <c r="AR75" s="35"/>
       <c r="AS75" s="24">
         <v>47</v>
       </c>
@@ -21906,7 +21906,7 @@
       </c>
     </row>
     <row r="76" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B76" s="32"/>
+      <c r="B76" s="35"/>
       <c r="C76" s="24">
         <v>48</v>
       </c>
@@ -22066,7 +22066,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR76" s="32"/>
+      <c r="AR76" s="35"/>
       <c r="AS76" s="24">
         <v>48</v>
       </c>
@@ -22228,7 +22228,7 @@
       </c>
     </row>
     <row r="77" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B77" s="32"/>
+      <c r="B77" s="35"/>
       <c r="C77" s="24">
         <v>49</v>
       </c>
@@ -22388,7 +22388,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR77" s="32"/>
+      <c r="AR77" s="35"/>
       <c r="AS77" s="24">
         <v>49</v>
       </c>
@@ -22550,7 +22550,7 @@
       </c>
     </row>
     <row r="78" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B78" s="32"/>
+      <c r="B78" s="35"/>
       <c r="C78" s="24">
         <v>50</v>
       </c>
@@ -22710,7 +22710,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR78" s="32"/>
+      <c r="AR78" s="35"/>
       <c r="AS78" s="24">
         <v>50</v>
       </c>
@@ -22872,7 +22872,7 @@
       </c>
     </row>
     <row r="79" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B79" s="32"/>
+      <c r="B79" s="35"/>
       <c r="C79" s="24">
         <v>51</v>
       </c>
@@ -23032,7 +23032,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR79" s="32"/>
+      <c r="AR79" s="35"/>
       <c r="AS79" s="24">
         <v>51</v>
       </c>
@@ -23194,7 +23194,7 @@
       </c>
     </row>
     <row r="80" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B80" s="32"/>
+      <c r="B80" s="35"/>
       <c r="C80" s="24">
         <v>52</v>
       </c>
@@ -23354,7 +23354,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR80" s="32"/>
+      <c r="AR80" s="35"/>
       <c r="AS80" s="24">
         <v>52</v>
       </c>
@@ -23516,7 +23516,7 @@
       </c>
     </row>
     <row r="81" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B81" s="32"/>
+      <c r="B81" s="35"/>
       <c r="C81" s="24">
         <v>53</v>
       </c>
@@ -23676,7 +23676,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR81" s="32"/>
+      <c r="AR81" s="35"/>
       <c r="AS81" s="24">
         <v>53</v>
       </c>
@@ -23838,7 +23838,7 @@
       </c>
     </row>
     <row r="82" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B82" s="32"/>
+      <c r="B82" s="35"/>
       <c r="C82" s="24">
         <v>54</v>
       </c>
@@ -23998,7 +23998,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR82" s="32"/>
+      <c r="AR82" s="35"/>
       <c r="AS82" s="24">
         <v>54</v>
       </c>
@@ -24160,7 +24160,7 @@
       </c>
     </row>
     <row r="83" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B83" s="32"/>
+      <c r="B83" s="35"/>
       <c r="C83" s="24">
         <v>55</v>
       </c>
@@ -24320,7 +24320,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR83" s="32"/>
+      <c r="AR83" s="35"/>
       <c r="AS83" s="24">
         <v>55</v>
       </c>
@@ -24482,7 +24482,7 @@
       </c>
     </row>
     <row r="84" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B84" s="32"/>
+      <c r="B84" s="35"/>
       <c r="C84" s="24">
         <v>56</v>
       </c>
@@ -24642,7 +24642,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR84" s="32"/>
+      <c r="AR84" s="35"/>
       <c r="AS84" s="24">
         <v>56</v>
       </c>
@@ -24804,7 +24804,7 @@
       </c>
     </row>
     <row r="85" spans="2:84" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="32"/>
+      <c r="B85" s="35"/>
       <c r="C85" s="24">
         <v>57</v>
       </c>
@@ -24964,7 +24964,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR85" s="32"/>
+      <c r="AR85" s="35"/>
       <c r="AS85" s="24">
         <v>57</v>
       </c>
@@ -25126,7 +25126,7 @@
       </c>
     </row>
     <row r="86" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B86" s="32"/>
+      <c r="B86" s="35"/>
       <c r="C86" s="24">
         <v>58</v>
       </c>
@@ -25286,7 +25286,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR86" s="32"/>
+      <c r="AR86" s="35"/>
       <c r="AS86" s="24">
         <v>58</v>
       </c>
@@ -25448,7 +25448,7 @@
       </c>
     </row>
     <row r="87" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B87" s="32"/>
+      <c r="B87" s="35"/>
       <c r="C87" s="24">
         <v>59</v>
       </c>
@@ -25608,7 +25608,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR87" s="32"/>
+      <c r="AR87" s="35"/>
       <c r="AS87" s="24">
         <v>59</v>
       </c>
@@ -25770,7 +25770,7 @@
       </c>
     </row>
     <row r="88" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B88" s="32"/>
+      <c r="B88" s="35"/>
       <c r="C88" s="24">
         <v>60</v>
       </c>
@@ -25930,7 +25930,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR88" s="32"/>
+      <c r="AR88" s="35"/>
       <c r="AS88" s="24">
         <v>60</v>
       </c>
@@ -26092,7 +26092,7 @@
       </c>
     </row>
     <row r="89" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B89" s="32"/>
+      <c r="B89" s="35"/>
       <c r="C89" s="24">
         <v>61</v>
       </c>
@@ -26252,7 +26252,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR89" s="32"/>
+      <c r="AR89" s="35"/>
       <c r="AS89" s="24">
         <v>61</v>
       </c>
@@ -26414,7 +26414,7 @@
       </c>
     </row>
     <row r="90" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B90" s="32"/>
+      <c r="B90" s="35"/>
       <c r="C90" s="24">
         <v>62</v>
       </c>
@@ -26574,7 +26574,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR90" s="32"/>
+      <c r="AR90" s="35"/>
       <c r="AS90" s="24">
         <v>62</v>
       </c>
@@ -26736,7 +26736,7 @@
       </c>
     </row>
     <row r="91" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B91" s="32"/>
+      <c r="B91" s="35"/>
       <c r="C91" s="24">
         <v>63</v>
       </c>
@@ -26896,7 +26896,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR91" s="32"/>
+      <c r="AR91" s="35"/>
       <c r="AS91" s="24">
         <v>63</v>
       </c>
@@ -27058,7 +27058,7 @@
       </c>
     </row>
     <row r="92" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B92" s="32"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="24">
         <v>64</v>
       </c>
@@ -27218,7 +27218,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR92" s="32"/>
+      <c r="AR92" s="35"/>
       <c r="AS92" s="24">
         <v>64</v>
       </c>
@@ -27380,7 +27380,7 @@
       </c>
     </row>
     <row r="93" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B93" s="32"/>
+      <c r="B93" s="35"/>
       <c r="C93" s="24">
         <v>65</v>
       </c>
@@ -27540,7 +27540,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR93" s="32"/>
+      <c r="AR93" s="35"/>
       <c r="AS93" s="24">
         <v>65</v>
       </c>
@@ -27702,7 +27702,7 @@
       </c>
     </row>
     <row r="94" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B94" s="32"/>
+      <c r="B94" s="35"/>
       <c r="C94" s="24">
         <v>66</v>
       </c>
@@ -27862,7 +27862,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR94" s="32"/>
+      <c r="AR94" s="35"/>
       <c r="AS94" s="24">
         <v>66</v>
       </c>
@@ -28024,7 +28024,7 @@
       </c>
     </row>
     <row r="95" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B95" s="32"/>
+      <c r="B95" s="35"/>
       <c r="C95" s="24">
         <v>67</v>
       </c>
@@ -28184,7 +28184,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR95" s="32"/>
+      <c r="AR95" s="35"/>
       <c r="AS95" s="24">
         <v>67</v>
       </c>
@@ -28346,7 +28346,7 @@
       </c>
     </row>
     <row r="96" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B96" s="32"/>
+      <c r="B96" s="35"/>
       <c r="C96" s="24">
         <v>68</v>
       </c>
@@ -28506,7 +28506,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR96" s="32"/>
+      <c r="AR96" s="35"/>
       <c r="AS96" s="24">
         <v>68</v>
       </c>
@@ -28668,7 +28668,7 @@
       </c>
     </row>
     <row r="97" spans="2:84" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B97" s="32"/>
+      <c r="B97" s="35"/>
       <c r="C97" s="24">
         <v>69</v>
       </c>
@@ -28828,7 +28828,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR97" s="32"/>
+      <c r="AR97" s="35"/>
       <c r="AS97" s="24">
         <v>69</v>
       </c>
@@ -28990,7 +28990,7 @@
       </c>
     </row>
     <row r="98" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B98" s="32"/>
+      <c r="B98" s="35"/>
       <c r="C98" s="24">
         <v>70</v>
       </c>
@@ -29150,7 +29150,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR98" s="32"/>
+      <c r="AR98" s="35"/>
       <c r="AS98" s="24">
         <v>70</v>
       </c>
@@ -29312,7 +29312,7 @@
       </c>
     </row>
     <row r="99" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B99" s="32"/>
+      <c r="B99" s="35"/>
       <c r="C99" s="24">
         <v>71</v>
       </c>
@@ -29472,7 +29472,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR99" s="32"/>
+      <c r="AR99" s="35"/>
       <c r="AS99" s="24">
         <v>71</v>
       </c>
@@ -29634,7 +29634,7 @@
       </c>
     </row>
     <row r="100" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B100" s="32"/>
+      <c r="B100" s="35"/>
       <c r="C100" s="24">
         <v>72</v>
       </c>
@@ -29794,7 +29794,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR100" s="32"/>
+      <c r="AR100" s="35"/>
       <c r="AS100" s="24">
         <v>72</v>
       </c>
@@ -29956,7 +29956,7 @@
       </c>
     </row>
     <row r="101" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B101" s="32"/>
+      <c r="B101" s="35"/>
       <c r="C101" s="24">
         <v>73</v>
       </c>
@@ -30116,7 +30116,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR101" s="32"/>
+      <c r="AR101" s="35"/>
       <c r="AS101" s="24">
         <v>73</v>
       </c>
@@ -30278,7 +30278,7 @@
       </c>
     </row>
     <row r="102" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B102" s="32"/>
+      <c r="B102" s="35"/>
       <c r="C102" s="24">
         <v>74</v>
       </c>
@@ -30438,7 +30438,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR102" s="32"/>
+      <c r="AR102" s="35"/>
       <c r="AS102" s="24">
         <v>74</v>
       </c>
@@ -30600,7 +30600,7 @@
       </c>
     </row>
     <row r="103" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B103" s="32"/>
+      <c r="B103" s="35"/>
       <c r="C103" s="24">
         <v>75</v>
       </c>
@@ -30760,7 +30760,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR103" s="32"/>
+      <c r="AR103" s="35"/>
       <c r="AS103" s="24">
         <v>75</v>
       </c>
@@ -30922,7 +30922,7 @@
       </c>
     </row>
     <row r="104" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B104" s="32"/>
+      <c r="B104" s="35"/>
       <c r="C104" s="24">
         <v>76</v>
       </c>
@@ -31082,7 +31082,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR104" s="32"/>
+      <c r="AR104" s="35"/>
       <c r="AS104" s="24">
         <v>76</v>
       </c>
@@ -31244,7 +31244,7 @@
       </c>
     </row>
     <row r="105" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B105" s="32"/>
+      <c r="B105" s="35"/>
       <c r="C105" s="24">
         <v>77</v>
       </c>
@@ -31404,7 +31404,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR105" s="32"/>
+      <c r="AR105" s="35"/>
       <c r="AS105" s="24">
         <v>77</v>
       </c>
@@ -31566,7 +31566,7 @@
       </c>
     </row>
     <row r="106" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B106" s="32"/>
+      <c r="B106" s="35"/>
       <c r="C106" s="24">
         <v>78</v>
       </c>
@@ -31726,7 +31726,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR106" s="32"/>
+      <c r="AR106" s="35"/>
       <c r="AS106" s="24">
         <v>78</v>
       </c>
@@ -31888,7 +31888,7 @@
       </c>
     </row>
     <row r="107" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B107" s="32"/>
+      <c r="B107" s="35"/>
       <c r="C107" s="24">
         <v>79</v>
       </c>
@@ -32048,7 +32048,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR107" s="32"/>
+      <c r="AR107" s="35"/>
       <c r="AS107" s="24">
         <v>79</v>
       </c>
@@ -32210,7 +32210,7 @@
       </c>
     </row>
     <row r="108" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B108" s="32"/>
+      <c r="B108" s="35"/>
       <c r="C108" s="24">
         <v>80</v>
       </c>
@@ -32370,7 +32370,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AR108" s="32"/>
+      <c r="AR108" s="35"/>
       <c r="AS108" s="24">
         <v>80</v>
       </c>
@@ -32532,7 +32532,7 @@
       </c>
     </row>
     <row r="109" spans="2:84" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B109" s="32"/>
+      <c r="B109" s="35"/>
       <c r="C109" s="24">
         <v>81</v>
       </c>
@@ -32692,7 +32692,7 @@
         <f t="shared" si="176"/>
         <v>1</v>
       </c>
-      <c r="AR109" s="32"/>
+      <c r="AR109" s="35"/>
       <c r="AS109" s="24">
         <v>81</v>
       </c>
@@ -32854,7 +32854,7 @@
       </c>
     </row>
     <row r="110" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B110" s="32"/>
+      <c r="B110" s="35"/>
       <c r="C110" s="24">
         <v>82</v>
       </c>
@@ -33014,7 +33014,7 @@
         <f t="shared" ref="AP110:AP172" si="254">IF(_xlfn.XOR(D110,AJ110,AK110,AO110),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AR110" s="32"/>
+      <c r="AR110" s="35"/>
       <c r="AS110" s="24">
         <v>82</v>
       </c>
@@ -33176,7 +33176,7 @@
       </c>
     </row>
     <row r="111" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B111" s="32"/>
+      <c r="B111" s="35"/>
       <c r="C111" s="24">
         <v>83</v>
       </c>
@@ -33336,7 +33336,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR111" s="32"/>
+      <c r="AR111" s="35"/>
       <c r="AS111" s="24">
         <v>83</v>
       </c>
@@ -33498,7 +33498,7 @@
       </c>
     </row>
     <row r="112" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B112" s="32"/>
+      <c r="B112" s="35"/>
       <c r="C112" s="24">
         <v>84</v>
       </c>
@@ -33658,7 +33658,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR112" s="32"/>
+      <c r="AR112" s="35"/>
       <c r="AS112" s="24">
         <v>84</v>
       </c>
@@ -33820,7 +33820,7 @@
       </c>
     </row>
     <row r="113" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B113" s="32"/>
+      <c r="B113" s="35"/>
       <c r="C113" s="24">
         <v>85</v>
       </c>
@@ -33980,7 +33980,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR113" s="32"/>
+      <c r="AR113" s="35"/>
       <c r="AS113" s="24">
         <v>85</v>
       </c>
@@ -34142,7 +34142,7 @@
       </c>
     </row>
     <row r="114" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B114" s="32"/>
+      <c r="B114" s="35"/>
       <c r="C114" s="24">
         <v>86</v>
       </c>
@@ -34302,7 +34302,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR114" s="32"/>
+      <c r="AR114" s="35"/>
       <c r="AS114" s="24">
         <v>86</v>
       </c>
@@ -34464,7 +34464,7 @@
       </c>
     </row>
     <row r="115" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B115" s="32"/>
+      <c r="B115" s="35"/>
       <c r="C115" s="24">
         <v>87</v>
       </c>
@@ -34624,7 +34624,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR115" s="32"/>
+      <c r="AR115" s="35"/>
       <c r="AS115" s="24">
         <v>87</v>
       </c>
@@ -34786,7 +34786,7 @@
       </c>
     </row>
     <row r="116" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B116" s="32"/>
+      <c r="B116" s="35"/>
       <c r="C116" s="24">
         <v>88</v>
       </c>
@@ -34946,7 +34946,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR116" s="32"/>
+      <c r="AR116" s="35"/>
       <c r="AS116" s="24">
         <v>88</v>
       </c>
@@ -35108,7 +35108,7 @@
       </c>
     </row>
     <row r="117" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B117" s="32"/>
+      <c r="B117" s="35"/>
       <c r="C117" s="24">
         <v>89</v>
       </c>
@@ -35268,7 +35268,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR117" s="32"/>
+      <c r="AR117" s="35"/>
       <c r="AS117" s="24">
         <v>89</v>
       </c>
@@ -35430,7 +35430,7 @@
       </c>
     </row>
     <row r="118" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B118" s="32"/>
+      <c r="B118" s="35"/>
       <c r="C118" s="24">
         <v>90</v>
       </c>
@@ -35590,7 +35590,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR118" s="32"/>
+      <c r="AR118" s="35"/>
       <c r="AS118" s="24">
         <v>90</v>
       </c>
@@ -35752,7 +35752,7 @@
       </c>
     </row>
     <row r="119" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B119" s="32"/>
+      <c r="B119" s="35"/>
       <c r="C119" s="24">
         <v>91</v>
       </c>
@@ -35912,7 +35912,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR119" s="32"/>
+      <c r="AR119" s="35"/>
       <c r="AS119" s="24">
         <v>91</v>
       </c>
@@ -36074,7 +36074,7 @@
       </c>
     </row>
     <row r="120" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B120" s="32"/>
+      <c r="B120" s="35"/>
       <c r="C120" s="24">
         <v>92</v>
       </c>
@@ -36234,7 +36234,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR120" s="32"/>
+      <c r="AR120" s="35"/>
       <c r="AS120" s="24">
         <v>92</v>
       </c>
@@ -36396,7 +36396,7 @@
       </c>
     </row>
     <row r="121" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B121" s="32"/>
+      <c r="B121" s="35"/>
       <c r="C121" s="24">
         <v>93</v>
       </c>
@@ -36556,7 +36556,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR121" s="32"/>
+      <c r="AR121" s="35"/>
       <c r="AS121" s="24">
         <v>93</v>
       </c>
@@ -36718,7 +36718,7 @@
       </c>
     </row>
     <row r="122" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B122" s="32"/>
+      <c r="B122" s="35"/>
       <c r="C122" s="24">
         <v>94</v>
       </c>
@@ -36878,7 +36878,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR122" s="32"/>
+      <c r="AR122" s="35"/>
       <c r="AS122" s="24">
         <v>94</v>
       </c>
@@ -37040,7 +37040,7 @@
       </c>
     </row>
     <row r="123" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B123" s="32"/>
+      <c r="B123" s="35"/>
       <c r="C123" s="24">
         <v>95</v>
       </c>
@@ -37200,7 +37200,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR123" s="32"/>
+      <c r="AR123" s="35"/>
       <c r="AS123" s="24">
         <v>95</v>
       </c>
@@ -37362,7 +37362,7 @@
       </c>
     </row>
     <row r="124" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B124" s="32"/>
+      <c r="B124" s="35"/>
       <c r="C124" s="24">
         <v>96</v>
       </c>
@@ -37522,7 +37522,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR124" s="32"/>
+      <c r="AR124" s="35"/>
       <c r="AS124" s="24">
         <v>96</v>
       </c>
@@ -37684,7 +37684,7 @@
       </c>
     </row>
     <row r="125" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B125" s="32"/>
+      <c r="B125" s="35"/>
       <c r="C125" s="24">
         <v>97</v>
       </c>
@@ -37844,7 +37844,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR125" s="32"/>
+      <c r="AR125" s="35"/>
       <c r="AS125" s="24">
         <v>97</v>
       </c>
@@ -38006,7 +38006,7 @@
       </c>
     </row>
     <row r="126" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B126" s="32"/>
+      <c r="B126" s="35"/>
       <c r="C126" s="24">
         <v>98</v>
       </c>
@@ -38166,7 +38166,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR126" s="32"/>
+      <c r="AR126" s="35"/>
       <c r="AS126" s="24">
         <v>98</v>
       </c>
@@ -38328,7 +38328,7 @@
       </c>
     </row>
     <row r="127" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B127" s="32"/>
+      <c r="B127" s="35"/>
       <c r="C127" s="24">
         <v>99</v>
       </c>
@@ -38488,7 +38488,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR127" s="32"/>
+      <c r="AR127" s="35"/>
       <c r="AS127" s="24">
         <v>99</v>
       </c>
@@ -38650,7 +38650,7 @@
       </c>
     </row>
     <row r="128" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B128" s="32"/>
+      <c r="B128" s="35"/>
       <c r="C128" s="24">
         <v>100</v>
       </c>
@@ -38810,7 +38810,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR128" s="32"/>
+      <c r="AR128" s="35"/>
       <c r="AS128" s="24">
         <v>100</v>
       </c>
@@ -38972,7 +38972,7 @@
       </c>
     </row>
     <row r="129" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B129" s="32"/>
+      <c r="B129" s="35"/>
       <c r="C129" s="24">
         <v>101</v>
       </c>
@@ -39132,7 +39132,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR129" s="32"/>
+      <c r="AR129" s="35"/>
       <c r="AS129" s="24">
         <v>101</v>
       </c>
@@ -39294,7 +39294,7 @@
       </c>
     </row>
     <row r="130" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B130" s="32"/>
+      <c r="B130" s="35"/>
       <c r="C130" s="24">
         <v>102</v>
       </c>
@@ -39454,7 +39454,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR130" s="32"/>
+      <c r="AR130" s="35"/>
       <c r="AS130" s="24">
         <v>102</v>
       </c>
@@ -39616,7 +39616,7 @@
       </c>
     </row>
     <row r="131" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B131" s="32"/>
+      <c r="B131" s="35"/>
       <c r="C131" s="24">
         <v>103</v>
       </c>
@@ -39776,7 +39776,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR131" s="32"/>
+      <c r="AR131" s="35"/>
       <c r="AS131" s="24">
         <v>103</v>
       </c>
@@ -39938,7 +39938,7 @@
       </c>
     </row>
     <row r="132" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B132" s="32"/>
+      <c r="B132" s="35"/>
       <c r="C132" s="24">
         <v>104</v>
       </c>
@@ -40098,7 +40098,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR132" s="32"/>
+      <c r="AR132" s="35"/>
       <c r="AS132" s="24">
         <v>104</v>
       </c>
@@ -40260,7 +40260,7 @@
       </c>
     </row>
     <row r="133" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B133" s="32"/>
+      <c r="B133" s="35"/>
       <c r="C133" s="24">
         <v>105</v>
       </c>
@@ -40420,7 +40420,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR133" s="32"/>
+      <c r="AR133" s="35"/>
       <c r="AS133" s="24">
         <v>105</v>
       </c>
@@ -40582,7 +40582,7 @@
       </c>
     </row>
     <row r="134" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B134" s="32"/>
+      <c r="B134" s="35"/>
       <c r="C134" s="24">
         <v>106</v>
       </c>
@@ -40742,7 +40742,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR134" s="32"/>
+      <c r="AR134" s="35"/>
       <c r="AS134" s="24">
         <v>106</v>
       </c>
@@ -40904,7 +40904,7 @@
       </c>
     </row>
     <row r="135" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B135" s="32"/>
+      <c r="B135" s="35"/>
       <c r="C135" s="24">
         <v>107</v>
       </c>
@@ -41064,7 +41064,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR135" s="32"/>
+      <c r="AR135" s="35"/>
       <c r="AS135" s="24">
         <v>107</v>
       </c>
@@ -41226,7 +41226,7 @@
       </c>
     </row>
     <row r="136" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B136" s="32"/>
+      <c r="B136" s="35"/>
       <c r="C136" s="24">
         <v>108</v>
       </c>
@@ -41386,7 +41386,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR136" s="32"/>
+      <c r="AR136" s="35"/>
       <c r="AS136" s="24">
         <v>108</v>
       </c>
@@ -41548,7 +41548,7 @@
       </c>
     </row>
     <row r="137" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B137" s="32"/>
+      <c r="B137" s="35"/>
       <c r="C137" s="24">
         <v>109</v>
       </c>
@@ -41708,7 +41708,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR137" s="32"/>
+      <c r="AR137" s="35"/>
       <c r="AS137" s="24">
         <v>109</v>
       </c>
@@ -41870,7 +41870,7 @@
       </c>
     </row>
     <row r="138" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B138" s="32"/>
+      <c r="B138" s="35"/>
       <c r="C138" s="24">
         <v>110</v>
       </c>
@@ -42030,7 +42030,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR138" s="32"/>
+      <c r="AR138" s="35"/>
       <c r="AS138" s="24">
         <v>110</v>
       </c>
@@ -42192,7 +42192,7 @@
       </c>
     </row>
     <row r="139" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B139" s="32"/>
+      <c r="B139" s="35"/>
       <c r="C139" s="24">
         <v>111</v>
       </c>
@@ -42352,7 +42352,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR139" s="32"/>
+      <c r="AR139" s="35"/>
       <c r="AS139" s="24">
         <v>111</v>
       </c>
@@ -42514,7 +42514,7 @@
       </c>
     </row>
     <row r="140" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B140" s="32"/>
+      <c r="B140" s="35"/>
       <c r="C140" s="24">
         <v>112</v>
       </c>
@@ -42674,7 +42674,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR140" s="32"/>
+      <c r="AR140" s="35"/>
       <c r="AS140" s="24">
         <v>112</v>
       </c>
@@ -42836,7 +42836,7 @@
       </c>
     </row>
     <row r="141" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B141" s="32"/>
+      <c r="B141" s="35"/>
       <c r="C141" s="24">
         <v>113</v>
       </c>
@@ -42996,7 +42996,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR141" s="32"/>
+      <c r="AR141" s="35"/>
       <c r="AS141" s="24">
         <v>113</v>
       </c>
@@ -43158,7 +43158,7 @@
       </c>
     </row>
     <row r="142" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B142" s="32"/>
+      <c r="B142" s="35"/>
       <c r="C142" s="24">
         <v>114</v>
       </c>
@@ -43318,7 +43318,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR142" s="32"/>
+      <c r="AR142" s="35"/>
       <c r="AS142" s="24">
         <v>114</v>
       </c>
@@ -43480,7 +43480,7 @@
       </c>
     </row>
     <row r="143" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B143" s="32"/>
+      <c r="B143" s="35"/>
       <c r="C143" s="24">
         <v>115</v>
       </c>
@@ -43640,7 +43640,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR143" s="32"/>
+      <c r="AR143" s="35"/>
       <c r="AS143" s="24">
         <v>115</v>
       </c>
@@ -43802,7 +43802,7 @@
       </c>
     </row>
     <row r="144" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B144" s="32"/>
+      <c r="B144" s="35"/>
       <c r="C144" s="24">
         <v>116</v>
       </c>
@@ -43962,7 +43962,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR144" s="32"/>
+      <c r="AR144" s="35"/>
       <c r="AS144" s="24">
         <v>116</v>
       </c>
@@ -44124,7 +44124,7 @@
       </c>
     </row>
     <row r="145" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B145" s="32"/>
+      <c r="B145" s="35"/>
       <c r="C145" s="24">
         <v>117</v>
       </c>
@@ -44284,7 +44284,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR145" s="32"/>
+      <c r="AR145" s="35"/>
       <c r="AS145" s="24">
         <v>117</v>
       </c>
@@ -44446,7 +44446,7 @@
       </c>
     </row>
     <row r="146" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B146" s="32"/>
+      <c r="B146" s="35"/>
       <c r="C146" s="24">
         <v>118</v>
       </c>
@@ -44606,7 +44606,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR146" s="32"/>
+      <c r="AR146" s="35"/>
       <c r="AS146" s="24">
         <v>118</v>
       </c>
@@ -44768,7 +44768,7 @@
       </c>
     </row>
     <row r="147" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B147" s="32"/>
+      <c r="B147" s="35"/>
       <c r="C147" s="24">
         <v>119</v>
       </c>
@@ -44928,7 +44928,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR147" s="32"/>
+      <c r="AR147" s="35"/>
       <c r="AS147" s="24">
         <v>119</v>
       </c>
@@ -45090,7 +45090,7 @@
       </c>
     </row>
     <row r="148" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B148" s="32"/>
+      <c r="B148" s="35"/>
       <c r="C148" s="24">
         <v>120</v>
       </c>
@@ -45250,7 +45250,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR148" s="32"/>
+      <c r="AR148" s="35"/>
       <c r="AS148" s="24">
         <v>120</v>
       </c>
@@ -45412,7 +45412,7 @@
       </c>
     </row>
     <row r="149" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B149" s="32"/>
+      <c r="B149" s="35"/>
       <c r="C149" s="24">
         <v>121</v>
       </c>
@@ -45572,7 +45572,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR149" s="32"/>
+      <c r="AR149" s="35"/>
       <c r="AS149" s="24">
         <v>121</v>
       </c>
@@ -45734,7 +45734,7 @@
       </c>
     </row>
     <row r="150" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B150" s="32"/>
+      <c r="B150" s="35"/>
       <c r="C150" s="24">
         <v>122</v>
       </c>
@@ -45894,7 +45894,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR150" s="32"/>
+      <c r="AR150" s="35"/>
       <c r="AS150" s="24">
         <v>122</v>
       </c>
@@ -46056,7 +46056,7 @@
       </c>
     </row>
     <row r="151" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B151" s="32"/>
+      <c r="B151" s="35"/>
       <c r="C151" s="24">
         <v>123</v>
       </c>
@@ -46216,7 +46216,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR151" s="32"/>
+      <c r="AR151" s="35"/>
       <c r="AS151" s="24">
         <v>123</v>
       </c>
@@ -46378,7 +46378,7 @@
       </c>
     </row>
     <row r="152" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B152" s="32"/>
+      <c r="B152" s="35"/>
       <c r="C152" s="24">
         <v>124</v>
       </c>
@@ -46538,7 +46538,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR152" s="32"/>
+      <c r="AR152" s="35"/>
       <c r="AS152" s="24">
         <v>124</v>
       </c>
@@ -46700,7 +46700,7 @@
       </c>
     </row>
     <row r="153" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B153" s="32"/>
+      <c r="B153" s="35"/>
       <c r="C153" s="24">
         <v>125</v>
       </c>
@@ -46860,7 +46860,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR153" s="32"/>
+      <c r="AR153" s="35"/>
       <c r="AS153" s="24">
         <v>125</v>
       </c>
@@ -47022,7 +47022,7 @@
       </c>
     </row>
     <row r="154" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B154" s="32"/>
+      <c r="B154" s="35"/>
       <c r="C154" s="24">
         <v>126</v>
       </c>
@@ -47182,7 +47182,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR154" s="32"/>
+      <c r="AR154" s="35"/>
       <c r="AS154" s="24">
         <v>126</v>
       </c>
@@ -47344,7 +47344,7 @@
       </c>
     </row>
     <row r="155" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B155" s="32"/>
+      <c r="B155" s="35"/>
       <c r="C155" s="24">
         <v>127</v>
       </c>
@@ -47504,7 +47504,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR155" s="32"/>
+      <c r="AR155" s="35"/>
       <c r="AS155" s="24">
         <v>127</v>
       </c>
@@ -47666,7 +47666,7 @@
       </c>
     </row>
     <row r="156" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B156" s="32"/>
+      <c r="B156" s="35"/>
       <c r="C156" s="24">
         <v>128</v>
       </c>
@@ -47826,7 +47826,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR156" s="32"/>
+      <c r="AR156" s="35"/>
       <c r="AS156" s="24">
         <v>128</v>
       </c>
@@ -47988,7 +47988,7 @@
       </c>
     </row>
     <row r="157" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B157" s="32"/>
+      <c r="B157" s="35"/>
       <c r="C157" s="24">
         <v>129</v>
       </c>
@@ -48148,7 +48148,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR157" s="32"/>
+      <c r="AR157" s="35"/>
       <c r="AS157" s="24">
         <v>129</v>
       </c>
@@ -48310,7 +48310,7 @@
       </c>
     </row>
     <row r="158" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B158" s="32"/>
+      <c r="B158" s="35"/>
       <c r="C158" s="24">
         <v>130</v>
       </c>
@@ -48470,7 +48470,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR158" s="32"/>
+      <c r="AR158" s="35"/>
       <c r="AS158" s="24">
         <v>130</v>
       </c>
@@ -48632,7 +48632,7 @@
       </c>
     </row>
     <row r="159" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B159" s="32"/>
+      <c r="B159" s="35"/>
       <c r="C159" s="24">
         <v>131</v>
       </c>
@@ -48792,7 +48792,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR159" s="32"/>
+      <c r="AR159" s="35"/>
       <c r="AS159" s="24">
         <v>131</v>
       </c>
@@ -48954,7 +48954,7 @@
       </c>
     </row>
     <row r="160" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B160" s="32"/>
+      <c r="B160" s="35"/>
       <c r="C160" s="24">
         <v>132</v>
       </c>
@@ -49114,7 +49114,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR160" s="32"/>
+      <c r="AR160" s="35"/>
       <c r="AS160" s="24">
         <v>132</v>
       </c>
@@ -49276,7 +49276,7 @@
       </c>
     </row>
     <row r="161" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B161" s="32"/>
+      <c r="B161" s="35"/>
       <c r="C161" s="24">
         <v>133</v>
       </c>
@@ -49436,7 +49436,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR161" s="32"/>
+      <c r="AR161" s="35"/>
       <c r="AS161" s="24">
         <v>133</v>
       </c>
@@ -49598,7 +49598,7 @@
       </c>
     </row>
     <row r="162" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B162" s="32"/>
+      <c r="B162" s="35"/>
       <c r="C162" s="24">
         <v>134</v>
       </c>
@@ -49758,7 +49758,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR162" s="32"/>
+      <c r="AR162" s="35"/>
       <c r="AS162" s="24">
         <v>134</v>
       </c>
@@ -49920,7 +49920,7 @@
       </c>
     </row>
     <row r="163" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B163" s="32"/>
+      <c r="B163" s="35"/>
       <c r="C163" s="24">
         <v>135</v>
       </c>
@@ -50080,7 +50080,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR163" s="32"/>
+      <c r="AR163" s="35"/>
       <c r="AS163" s="24">
         <v>135</v>
       </c>
@@ -50242,7 +50242,7 @@
       </c>
     </row>
     <row r="164" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B164" s="32"/>
+      <c r="B164" s="35"/>
       <c r="C164" s="24">
         <v>136</v>
       </c>
@@ -50402,7 +50402,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR164" s="32"/>
+      <c r="AR164" s="35"/>
       <c r="AS164" s="24">
         <v>136</v>
       </c>
@@ -50564,7 +50564,7 @@
       </c>
     </row>
     <row r="165" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B165" s="32"/>
+      <c r="B165" s="35"/>
       <c r="C165" s="24">
         <v>137</v>
       </c>
@@ -50724,7 +50724,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR165" s="32"/>
+      <c r="AR165" s="35"/>
       <c r="AS165" s="24">
         <v>137</v>
       </c>
@@ -50886,7 +50886,7 @@
       </c>
     </row>
     <row r="166" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B166" s="32"/>
+      <c r="B166" s="35"/>
       <c r="C166" s="24">
         <v>138</v>
       </c>
@@ -51046,7 +51046,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR166" s="32"/>
+      <c r="AR166" s="35"/>
       <c r="AS166" s="24">
         <v>138</v>
       </c>
@@ -51208,7 +51208,7 @@
       </c>
     </row>
     <row r="167" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B167" s="32"/>
+      <c r="B167" s="35"/>
       <c r="C167" s="24">
         <v>139</v>
       </c>
@@ -51368,7 +51368,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR167" s="32"/>
+      <c r="AR167" s="35"/>
       <c r="AS167" s="24">
         <v>139</v>
       </c>
@@ -51530,7 +51530,7 @@
       </c>
     </row>
     <row r="168" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B168" s="32"/>
+      <c r="B168" s="35"/>
       <c r="C168" s="24">
         <v>140</v>
       </c>
@@ -51690,7 +51690,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR168" s="32"/>
+      <c r="AR168" s="35"/>
       <c r="AS168" s="24">
         <v>140</v>
       </c>
@@ -51852,7 +51852,7 @@
       </c>
     </row>
     <row r="169" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B169" s="32"/>
+      <c r="B169" s="35"/>
       <c r="C169" s="24">
         <v>141</v>
       </c>
@@ -52012,7 +52012,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR169" s="32"/>
+      <c r="AR169" s="35"/>
       <c r="AS169" s="24">
         <v>141</v>
       </c>
@@ -52174,7 +52174,7 @@
       </c>
     </row>
     <row r="170" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B170" s="32"/>
+      <c r="B170" s="35"/>
       <c r="C170" s="24">
         <v>142</v>
       </c>
@@ -52334,7 +52334,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR170" s="32"/>
+      <c r="AR170" s="35"/>
       <c r="AS170" s="24">
         <v>142</v>
       </c>
@@ -52496,7 +52496,7 @@
       </c>
     </row>
     <row r="171" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B171" s="32"/>
+      <c r="B171" s="35"/>
       <c r="C171" s="24">
         <v>143</v>
       </c>
@@ -52656,7 +52656,7 @@
         <f t="shared" si="254"/>
         <v>1</v>
       </c>
-      <c r="AR171" s="32"/>
+      <c r="AR171" s="35"/>
       <c r="AS171" s="24">
         <v>143</v>
       </c>
@@ -52818,16 +52818,16 @@
       </c>
     </row>
     <row r="172" spans="2:84" x14ac:dyDescent="0.45">
-      <c r="B172" s="33"/>
+      <c r="B172" s="36"/>
       <c r="C172" s="22">
         <v>144</v>
       </c>
       <c r="D172" s="14">
-        <f t="shared" ref="D113:D172" si="330">E171</f>
+        <f t="shared" ref="D172" si="330">E171</f>
         <v>1</v>
       </c>
       <c r="E172" s="25">
-        <f t="shared" ref="E169:N172" si="331">F171</f>
+        <f t="shared" ref="E172:N172" si="331">F171</f>
         <v>0</v>
       </c>
       <c r="F172" s="26">
@@ -52867,7 +52867,7 @@
         <v>0</v>
       </c>
       <c r="O172" s="26">
-        <f t="shared" ref="F136:U172" si="332">P171</f>
+        <f t="shared" ref="O172:U172" si="332">P171</f>
         <v>1</v>
       </c>
       <c r="P172" s="26">
@@ -52895,7 +52895,7 @@
         <v>0</v>
       </c>
       <c r="V172" s="26">
-        <f t="shared" ref="V154:AK172" si="333">W171</f>
+        <f t="shared" ref="V172:AH172" si="333">W171</f>
         <v>1</v>
       </c>
       <c r="W172" s="26">
@@ -52947,7 +52947,7 @@
         <v>1</v>
       </c>
       <c r="AI172" s="26">
-        <f t="shared" ref="AI166:AO172" si="334">AJ171</f>
+        <f t="shared" ref="AI172:AO172" si="334">AJ171</f>
         <v>1</v>
       </c>
       <c r="AJ172" s="16">
@@ -52978,7 +52978,7 @@
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AR172" s="33"/>
+      <c r="AR172" s="36"/>
       <c r="AS172" s="22">
         <v>144</v>
       </c>
@@ -53141,12 +53141,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D4:AO4"/>
-    <mergeCell ref="B1:AP2"/>
-    <mergeCell ref="AT4:CE4"/>
-    <mergeCell ref="AR1:CF2"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="AR4:AS5"/>
     <mergeCell ref="B6:B21"/>
     <mergeCell ref="AR6:AR21"/>
     <mergeCell ref="AT27:CE27"/>
@@ -53157,6 +53151,12 @@
     <mergeCell ref="AR29:AR172"/>
     <mergeCell ref="D27:AO27"/>
     <mergeCell ref="B24:AP25"/>
+    <mergeCell ref="D4:AO4"/>
+    <mergeCell ref="B1:AP2"/>
+    <mergeCell ref="AT4:CE4"/>
+    <mergeCell ref="AR1:CF2"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="AR4:AS5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
